--- a/10 hour log.xlsx
+++ b/10 hour log.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/9526428/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/9526428/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>10 Hour Log</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>5/15-5/21/18</t>
+  </si>
+  <si>
+    <t>Researched mouse hover detection</t>
+  </si>
+  <si>
+    <t>Implemented collision for moving objects in-game</t>
+  </si>
+  <si>
+    <t>Tested hover detection for stationary game objects using color fade</t>
+  </si>
+  <si>
+    <t>Implemented fading hover detection for stationary objects in game</t>
+  </si>
+  <si>
+    <t>Implemented death actions and game ending screens/restart commands</t>
   </si>
 </sst>
 </file>
@@ -117,15 +132,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,47 +419,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>43201</v>
       </c>
     </row>
@@ -455,7 +470,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>43203</v>
       </c>
     </row>
@@ -466,7 +481,7 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -477,7 +492,7 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>43207</v>
       </c>
     </row>
@@ -488,7 +503,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>43209</v>
       </c>
     </row>
@@ -510,7 +525,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>43241</v>
       </c>
     </row>
@@ -521,8 +536,63 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>43241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43242</v>
       </c>
     </row>
   </sheetData>
